--- a/Users Loads13.xlsx
+++ b/Users Loads13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3982092619582998</v>
+        <v>0.07523311824453659</v>
       </c>
       <c r="C2" t="n">
-        <v>7.814785998622965</v>
+        <v>9.98332146433655</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4521154093452253</v>
+        <v>0.3359112680504996</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.39093586629464</v>
+        <v>2.953384416946933</v>
       </c>
       <c r="C3" t="n">
-        <v>4.974099807223876</v>
+        <v>2.864758977924389</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2970329392195006</v>
+        <v>0.2777799680832428</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.642618307281173</v>
+        <v>5.773692554391255</v>
       </c>
       <c r="C4" t="n">
-        <v>11.47762778130616</v>
+        <v>3.900622100807873</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3750871617918393</v>
+        <v>0.218955141010668</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.286082056578197</v>
+        <v>6.167759696546383</v>
       </c>
       <c r="C5" t="n">
-        <v>7.095888309893704</v>
+        <v>9.809211267048411</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06318812599173181</v>
+        <v>0.1829812571993307</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.974743087981059</v>
+        <v>7.406837964857058</v>
       </c>
       <c r="C6" t="n">
-        <v>10.52261370347287</v>
+        <v>10.06167663110046</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3920345569165726</v>
+        <v>0.2871667071902242</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.012089534341708</v>
+        <v>9.616196982975641</v>
       </c>
       <c r="C7" t="n">
-        <v>4.699795742603518</v>
+        <v>3.509489174293834</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3212204339769114</v>
+        <v>0.3653016634335272</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.26269262167013</v>
+        <v>9.848177753616014</v>
       </c>
       <c r="C8" t="n">
-        <v>5.428878591420438</v>
+        <v>7.436262732912738</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3226699474501776</v>
+        <v>0.4808073650752189</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.91485258131567</v>
+        <v>12.55383930786672</v>
       </c>
       <c r="C9" t="n">
-        <v>4.851331730657991</v>
+        <v>4.279327681187098</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1947178756532051</v>
+        <v>0.07492043542634111</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.46113256096597</v>
+        <v>13.29922810024847</v>
       </c>
       <c r="C10" t="n">
-        <v>4.337453315629237</v>
+        <v>7.783683162537404</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2632560799211098</v>
+        <v>0.2889245308537539</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.95269661305029</v>
+        <v>17.99547533585224</v>
       </c>
       <c r="C11" t="n">
-        <v>8.991278586876144</v>
+        <v>2.11841858650494</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2086969934135526</v>
+        <v>0.1752173827777524</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.52675569423412</v>
+        <v>18.53763151347843</v>
       </c>
       <c r="C12" t="n">
-        <v>5.792261512020852</v>
+        <v>4.39344972474499</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4679040423165435</v>
+        <v>0.2220922443480584</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20.1604862485644</v>
+        <v>18.63205638934985</v>
       </c>
       <c r="C13" t="n">
-        <v>7.42654280223836</v>
+        <v>4.986562110838553</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2383594786632003</v>
+        <v>0.215803213596303</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.04019782377101</v>
+        <v>20.06649712964078</v>
       </c>
       <c r="C14" t="n">
-        <v>12.9673801216028</v>
+        <v>11.60604573814018</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2990396027284584</v>
+        <v>0.3168972079415959</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.80410300943999</v>
+        <v>21.76973576038055</v>
       </c>
       <c r="C15" t="n">
-        <v>8.643278179324572</v>
+        <v>3.556645759128389</v>
       </c>
       <c r="D15" t="n">
-        <v>0.378208819223215</v>
+        <v>0.2009854283316882</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>28.51006241184666</v>
+        <v>23.2420008819829</v>
       </c>
       <c r="C16" t="n">
-        <v>5.292499434435562</v>
+        <v>5.906405910492659</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4205513818014809</v>
+        <v>0.4021931071968891</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34.22995479902963</v>
+        <v>28.42991934264915</v>
       </c>
       <c r="C17" t="n">
-        <v>10.15660230049201</v>
+        <v>5.211050149413936</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4332555220544785</v>
+        <v>0.2671920424258935</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>36.77618569561051</v>
+        <v>30.14400356645806</v>
       </c>
       <c r="C18" t="n">
-        <v>6.680604456901015</v>
+        <v>10.5864691948066</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2540255980863263</v>
+        <v>0.2382146680565145</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>42.60294437884796</v>
+        <v>32.4471680635064</v>
       </c>
       <c r="C19" t="n">
-        <v>7.931293217415702</v>
+        <v>6.545296269531183</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1107130822313555</v>
+        <v>0.2140034867785274</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>43.95074097520665</v>
+        <v>32.52567331537449</v>
       </c>
       <c r="C20" t="n">
-        <v>10.11796671961376</v>
+        <v>4.102449139109263</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2354587420137117</v>
+        <v>0.2203004223466599</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45.25594927846392</v>
+        <v>39.94729452975473</v>
       </c>
       <c r="C21" t="n">
-        <v>9.822816936413458</v>
+        <v>3.215996275699432</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3515714656644179</v>
+        <v>0.1293551175505568</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>45.32798592036365</v>
+        <v>40.01592379268019</v>
       </c>
       <c r="C22" t="n">
-        <v>6.224015833632523</v>
+        <v>3.628056676642734</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1509027178872026</v>
+        <v>0.1940837309542387</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45.76035380805195</v>
+        <v>40.08431739783893</v>
       </c>
       <c r="C23" t="n">
-        <v>3.851978742506853</v>
+        <v>8.678875891429136</v>
       </c>
       <c r="D23" t="n">
-        <v>0.196895077449776</v>
+        <v>0.4270593338354775</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>46.34948162468753</v>
+        <v>40.52025015835166</v>
       </c>
       <c r="C24" t="n">
-        <v>6.182810549190309</v>
+        <v>7.390288203959521</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1007905310261811</v>
+        <v>0.3761051150682981</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>46.71452909272549</v>
+        <v>43.01354492417455</v>
       </c>
       <c r="C25" t="n">
-        <v>7.276925375176856</v>
+        <v>3.142563140820148</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2688765106342707</v>
+        <v>0.1198156653113756</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>51.72596268651985</v>
+        <v>43.77805673847455</v>
       </c>
       <c r="C26" t="n">
-        <v>5.709871159829881</v>
+        <v>7.260951701052202</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227599303484129</v>
+        <v>0.401828414030231</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.9533907368581</v>
+        <v>44.29793555997588</v>
       </c>
       <c r="C27" t="n">
-        <v>6.203450404841313</v>
+        <v>5.387638462952363</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2321899662049923</v>
+        <v>0.2073880080118378</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>54.2663366815837</v>
+        <v>46.72716149191006</v>
       </c>
       <c r="C28" t="n">
-        <v>4.038002964713884</v>
+        <v>7.337224986174386</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1540173945725164</v>
+        <v>0.3388098152362207</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>54.5903613588203</v>
+        <v>47.39135416267251</v>
       </c>
       <c r="C29" t="n">
-        <v>4.376897073214798</v>
+        <v>6.453944056586134</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1330119618215552</v>
+        <v>0.2463045592427141</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>56.22483293205325</v>
+        <v>47.8174656661246</v>
       </c>
       <c r="C30" t="n">
-        <v>6.898604006708179</v>
+        <v>10.111877475046</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4879538038489942</v>
+        <v>0.2887334180524139</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>56.35773519012394</v>
+        <v>48.52055549239252</v>
       </c>
       <c r="C31" t="n">
-        <v>10.89931007848859</v>
+        <v>6.518416412155037</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2757236792801792</v>
+        <v>0.4149195321780925</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>56.8677730473488</v>
+        <v>51.21594517182625</v>
       </c>
       <c r="C32" t="n">
-        <v>7.666338842163704</v>
+        <v>3.183264796971714</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4582962824682258</v>
+        <v>0.2185060737095261</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>59.91283980964619</v>
+        <v>51.9703249298066</v>
       </c>
       <c r="C33" t="n">
-        <v>5.082099499010064</v>
+        <v>6.346881827337049</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1922377173346766</v>
+        <v>0.3174741170585414</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>61.53155843765266</v>
+        <v>54.16152725376614</v>
       </c>
       <c r="C34" t="n">
-        <v>7.388273875219184</v>
+        <v>7.675095204171125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6371924570308358</v>
+        <v>0.3712768623965537</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>61.68983038604375</v>
+        <v>54.80777770059215</v>
       </c>
       <c r="C35" t="n">
-        <v>4.583167917465406</v>
+        <v>4.902277288884382</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1831384904901695</v>
+        <v>0.213037616933219</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>61.91123314275232</v>
+        <v>55.41196765115764</v>
       </c>
       <c r="C36" t="n">
-        <v>7.920272620605941</v>
+        <v>4.913836056676358</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1053766913791228</v>
+        <v>0.1706475731844044</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>63.94316697004999</v>
+        <v>56.6037814165996</v>
       </c>
       <c r="C37" t="n">
-        <v>4.270320413456319</v>
+        <v>4.163149749917805</v>
       </c>
       <c r="D37" t="n">
-        <v>0.180741676929669</v>
+        <v>0.2812321590158871</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>66.41647368181954</v>
+        <v>60.40108488796958</v>
       </c>
       <c r="C38" t="n">
-        <v>6.623593915282576</v>
+        <v>8.033048698042435</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6132908691923157</v>
+        <v>0.4329477569215394</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>66.80213669558225</v>
+        <v>62.18231205265536</v>
       </c>
       <c r="C39" t="n">
-        <v>2.702864546494778</v>
+        <v>7.437855157753307</v>
       </c>
       <c r="D39" t="n">
-        <v>0.336186070260969</v>
+        <v>0.3546088650246381</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>67.40591692538318</v>
+        <v>62.54924018612761</v>
       </c>
       <c r="C40" t="n">
-        <v>7.40351676524255</v>
+        <v>5.72600970424878</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4384159777750069</v>
+        <v>0.2039037318642306</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>70.20677307724648</v>
+        <v>65.15947309748269</v>
       </c>
       <c r="C41" t="n">
-        <v>6.272359489518534</v>
+        <v>6.904124754701207</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1071525354955821</v>
+        <v>0.2256882484673732</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>74.10886076226826</v>
+        <v>76.38515985569087</v>
       </c>
       <c r="C42" t="n">
-        <v>2.439264867776574</v>
+        <v>8.684317021384826</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2319567693868009</v>
+        <v>0.2996006407571912</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>76.32809228675821</v>
+        <v>78.51234466484162</v>
       </c>
       <c r="C43" t="n">
-        <v>8.203084730633789</v>
+        <v>7.404507410610385</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4335747416328984</v>
+        <v>0.2353788687118196</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>78.83797472967821</v>
+        <v>80.03520037738558</v>
       </c>
       <c r="C44" t="n">
-        <v>7.816027158701756</v>
+        <v>5.625841024645753</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4440114124660963</v>
+        <v>0.4081477503353001</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>79.96188894838561</v>
+        <v>83.42939298487228</v>
       </c>
       <c r="C45" t="n">
-        <v>5.883394119845866</v>
+        <v>5.533753658799011</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4306534831682619</v>
+        <v>0.2664124366651468</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>81.3680045771283</v>
+        <v>83.70384130449955</v>
       </c>
       <c r="C46" t="n">
-        <v>1.179998322236681</v>
+        <v>10.76204684179113</v>
       </c>
       <c r="D46" t="n">
-        <v>0.154529212309652</v>
+        <v>0.521881230098326</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>83.42417430036079</v>
+        <v>86.76744205496824</v>
       </c>
       <c r="C47" t="n">
-        <v>9.54918896624846</v>
+        <v>4.591141044328901</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4062515135594789</v>
+        <v>0.3685970012080611</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>83.91202369317107</v>
+        <v>90.24235059913268</v>
       </c>
       <c r="C48" t="n">
-        <v>4.444864660754249</v>
+        <v>4.290509247746069</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1488300579510738</v>
+        <v>0.1378360375103368</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>84.06688948704208</v>
+        <v>91.99187242628696</v>
       </c>
       <c r="C49" t="n">
-        <v>4.387878427460058</v>
+        <v>5.662014914729673</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3111038262504146</v>
+        <v>0.449561479510639</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>84.12410132445966</v>
+        <v>92.57865164299325</v>
       </c>
       <c r="C50" t="n">
-        <v>4.894347035494665</v>
+        <v>5.614175041749125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3214260480125343</v>
+        <v>0.4066910055841659</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>84.12464484047402</v>
+        <v>93.99583892024839</v>
       </c>
       <c r="C51" t="n">
-        <v>9.786651617543892</v>
+        <v>5.906603516014737</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3624608627253038</v>
+        <v>0.2604194868129724</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>87.50263326534579</v>
+        <v>94.27727922756749</v>
       </c>
       <c r="C52" t="n">
-        <v>5.271902462261806</v>
+        <v>2.361828667507065</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2681953559786004</v>
+        <v>0.234902609871655</v>
       </c>
     </row>
     <row r="53">
@@ -1169,41 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>94.20068372874896</v>
+        <v>97.54332944095091</v>
       </c>
       <c r="C53" t="n">
-        <v>5.951055041084905</v>
+        <v>3.617449581403715</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3174809839183944</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>96.34139596334487</v>
-      </c>
-      <c r="C54" t="n">
-        <v>7.481359590803486</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.36160128459185</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>97.35741409307734</v>
-      </c>
-      <c r="C55" t="n">
-        <v>10.62917978909081</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.3642297514921713</v>
+        <v>0.1337579938056263</v>
       </c>
     </row>
   </sheetData>
